--- a/biology/Zoologie/Friedrich_Hermann_Otto_Finsch/Friedrich_Hermann_Otto_Finsch.xlsx
+++ b/biology/Zoologie/Friedrich_Hermann_Otto_Finsch/Friedrich_Hermann_Otto_Finsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Hermann Otto Finsch est un explorateur, un ethnographe et un naturaliste allemand, né le 8 août 1839 à Warmbrunn, arrondissement d'Hirschberg-des-Monts-des-Géants en province de Silésie et mort le 31 janvier 1917 à Brunswick.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’âge de 19 ans, il voyage à travers la Bulgarie où il travaille comme précepteur. Il étudie l’histoire naturelle durant son temps libre et son premier article consacré aux oiseaux de ce pays est publié dans Journal für Ornithologie.
 Il devient conservateur assistant au muséum de Leyde puis en 1864 conservateur du muséum de Brême. En 1876, il accompagne le zoologiste Alfred Edmund Brehm (1829-1884) dans un voyage au Turkestan et dans le nord-ouest de la Chine. Il effectue de nombreux autres voyages dans les Balkans, en Amérique du Nord, en Laponie...
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi ses publications, il faut citer Die Vogel Ost Afrika qu’il signe avec Gustav Hartlaub (1814-1900) et :
 Neu-Guinea und seine Bewohner, etc. (Brême, 1865).
